--- a/Excel/OccupationJueXingConfig.xlsx
+++ b/Excel/OccupationJueXingConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADE6FAB9-36B0-4A1B-836F-8E2664D68C18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77606A2C-A047-49D1-AD6C-8A6EE871A2F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OccupationJueXingProto" sheetId="1" r:id="rId1"/>
@@ -23,10 +23,6 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
   <si>
     <t>int</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>OccupationName</t>
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
@@ -86,6 +82,10 @@
   <si>
     <t>69011004,69011005,69011006,69011101</t>
     <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>costItem</t>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2478,7 +2478,7 @@
   <dimension ref="C1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2493,36 +2493,36 @@
     <row r="2" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="3" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C3" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="4" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C4" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="F4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2530,16 +2530,16 @@
         <v>0</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2554,7 +2554,7 @@
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2569,7 +2569,7 @@
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="3:7" x14ac:dyDescent="0.2">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="3:7" x14ac:dyDescent="0.2">
@@ -2601,7 +2601,7 @@
         <v>69011001</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="3:7" x14ac:dyDescent="0.2">
@@ -2618,7 +2618,7 @@
         <v>69011002</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="3:7" x14ac:dyDescent="0.2">
@@ -2635,7 +2635,7 @@
         <v>69011002</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="3:7" x14ac:dyDescent="0.2">
@@ -2664,7 +2664,7 @@
         <v>1</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G13" s="7"/>
     </row>

--- a/Excel/OccupationJueXingConfig.xlsx
+++ b/Excel/OccupationJueXingConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77606A2C-A047-49D1-AD6C-8A6EE871A2F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{126238F2-0532-4E27-8F0C-30AB6B554799}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
   <si>
     <t>int</t>
     <phoneticPr fontId="23" type="noConversion"/>
@@ -65,13 +65,6 @@
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
-    <t>1;1@2;1</t>
-  </si>
-  <si>
-    <t>1;1@2;1</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
     <t>前置技能</t>
     <phoneticPr fontId="25" type="noConversion"/>
   </si>
@@ -86,6 +79,10 @@
   <si>
     <t>costItem</t>
     <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>10010083;1</t>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2478,7 +2475,7 @@
   <dimension ref="C1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2502,7 +2499,7 @@
         <v>7</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>8</v>
@@ -2519,10 +2516,10 @@
         <v>10</v>
       </c>
       <c r="F4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="5" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2554,7 +2551,7 @@
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2569,7 +2566,7 @@
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="3:7" x14ac:dyDescent="0.2">
@@ -2584,7 +2581,7 @@
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="3:7" x14ac:dyDescent="0.2">
@@ -2601,7 +2598,7 @@
         <v>69011001</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="3:7" x14ac:dyDescent="0.2">
@@ -2618,7 +2615,7 @@
         <v>69011002</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="3:7" x14ac:dyDescent="0.2">
@@ -2635,7 +2632,7 @@
         <v>69011002</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="3:7" x14ac:dyDescent="0.2">
@@ -2651,7 +2648,9 @@
       <c r="F12" s="7">
         <v>69011003</v>
       </c>
-      <c r="G12" s="7"/>
+      <c r="G12" s="4" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="13" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C13" s="7">
@@ -2664,9 +2663,11 @@
         <v>1</v>
       </c>
       <c r="F13" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G13" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="25" type="noConversion"/>

--- a/Excel/OccupationJueXingConfig.xlsx
+++ b/Excel/OccupationJueXingConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{126238F2-0532-4E27-8F0C-30AB6B554799}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFA0FC70-2D43-47BC-916F-52C4B35196F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OccupationJueXingProto" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="17">
   <si>
     <t>int</t>
     <phoneticPr fontId="23" type="noConversion"/>
@@ -82,6 +82,10 @@
   </si>
   <si>
     <t>10010083;1</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>69011001,69011002,69011003</t>
     <phoneticPr fontId="25" type="noConversion"/>
   </si>
 </sst>
@@ -2475,7 +2479,7 @@
   <dimension ref="C1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2594,8 +2598,8 @@
       <c r="E9" s="4">
         <v>1</v>
       </c>
-      <c r="F9" s="4">
-        <v>69011001</v>
+      <c r="F9" s="8" t="s">
+        <v>16</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>15</v>
@@ -2611,8 +2615,8 @@
       <c r="E10" s="4">
         <v>1</v>
       </c>
-      <c r="F10" s="4">
-        <v>69011002</v>
+      <c r="F10" s="8" t="s">
+        <v>16</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>15</v>
@@ -2628,8 +2632,8 @@
       <c r="E11" s="4">
         <v>1</v>
       </c>
-      <c r="F11" s="4">
-        <v>69011002</v>
+      <c r="F11" s="8" t="s">
+        <v>16</v>
       </c>
       <c r="G11" s="4" t="s">
         <v>15</v>
@@ -2645,8 +2649,8 @@
       <c r="E12" s="7">
         <v>1</v>
       </c>
-      <c r="F12" s="7">
-        <v>69011003</v>
+      <c r="F12" s="8" t="s">
+        <v>16</v>
       </c>
       <c r="G12" s="4" t="s">
         <v>15</v>

--- a/Excel/OccupationJueXingConfig.xlsx
+++ b/Excel/OccupationJueXingConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFA0FC70-2D43-47BC-916F-52C4B35196F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{240ABDC8-7833-4018-A8B2-2901D1D8FCB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
   <si>
     <t>int</t>
     <phoneticPr fontId="23" type="noConversion"/>
@@ -87,6 +87,29 @@
   <si>
     <t>69011001,69011002,69011003</t>
     <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>10010083;2</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>10010083;3</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>10010083;4</t>
+  </si>
+  <si>
+    <t>10010083;5</t>
+  </si>
+  <si>
+    <t>10010083;6</t>
+  </si>
+  <si>
+    <t>10010083;7</t>
+  </si>
+  <si>
+    <t>10010083;8</t>
   </si>
 </sst>
 </file>
@@ -2479,7 +2502,7 @@
   <dimension ref="C1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="G6" sqref="G6:G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2551,7 +2574,7 @@
         <v>1</v>
       </c>
       <c r="E6" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4" t="s">
@@ -2563,14 +2586,14 @@
         <v>69011002</v>
       </c>
       <c r="D7" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E7" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="3:7" x14ac:dyDescent="0.2">
@@ -2578,14 +2601,14 @@
         <v>69011003</v>
       </c>
       <c r="D8" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E8" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="3:7" x14ac:dyDescent="0.2">
@@ -2593,16 +2616,16 @@
         <v>69011004</v>
       </c>
       <c r="D9" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E9" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F9" s="8" t="s">
         <v>16</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="3:7" x14ac:dyDescent="0.2">
@@ -2610,16 +2633,16 @@
         <v>69011005</v>
       </c>
       <c r="D10" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E10" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F10" s="8" t="s">
         <v>16</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="3:7" x14ac:dyDescent="0.2">
@@ -2627,50 +2650,50 @@
         <v>69011006</v>
       </c>
       <c r="D11" s="4">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E11" s="4">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F11" s="8" t="s">
         <v>16</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C12" s="7">
         <v>69011101</v>
       </c>
-      <c r="D12" s="7">
-        <v>1</v>
-      </c>
-      <c r="E12" s="7">
-        <v>1</v>
+      <c r="D12" s="4">
+        <v>7</v>
+      </c>
+      <c r="E12" s="4">
+        <v>7</v>
       </c>
       <c r="F12" s="8" t="s">
         <v>16</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C13" s="7">
         <v>70403003</v>
       </c>
-      <c r="D13" s="7">
-        <v>1</v>
-      </c>
-      <c r="E13" s="7">
-        <v>1</v>
+      <c r="D13" s="4">
+        <v>8</v>
+      </c>
+      <c r="E13" s="4">
+        <v>8</v>
       </c>
       <c r="F13" s="8" t="s">
         <v>13</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/OccupationJueXingConfig.xlsx
+++ b/Excel/OccupationJueXingConfig.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{240ABDC8-7833-4018-A8B2-2901D1D8FCB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A4CF6D0-E608-4436-A5CE-A75356FB763A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OccupationJueXingProto" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="31">
   <si>
     <t>int</t>
     <phoneticPr fontId="23" type="noConversion"/>
@@ -73,50 +73,83 @@
     <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
-    <t>69011004,69011005,69011006,69011101</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
     <t>costItem</t>
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
-    <t>10010083;1</t>
+    <t>69051001,69051002,69051003</t>
     <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
-    <t>69011001,69011002,69011003</t>
+    <t>10010083;20</t>
     <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
-    <t>10010083;2</t>
+    <t>10010083;30</t>
     <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
-    <t>10010083;3</t>
+    <t>10010083;50</t>
     <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
-    <t>10010083;4</t>
+    <t>战士通用</t>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
-    <t>10010083;5</t>
+    <t>魔神通用</t>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
-    <t>10010083;6</t>
+    <t>元素通用</t>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
-    <t>10010083;7</t>
+    <t>觉醒</t>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
-    <t>10010083;8</t>
+    <t>法师通用</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>69052001,69052002,69052003</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>69052011,69052012,69052013,69052014</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>69052021,69052022,69052023,69052024</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>69052031,69052032,69052033,69052034</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>69051004,69051011,69051012,69051013</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>法师1通用</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>法师2通用</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>法师3通用</t>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="30" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -334,6 +367,27 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -1758,7 +1812,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="22" fillId="33" borderId="11" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1778,6 +1832,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="20" fillId="34" borderId="12" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2179,9 +2239,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2219,9 +2279,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2254,26 +2314,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2306,26 +2349,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2499,23 +2525,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C1:G13"/>
+  <dimension ref="C1:I68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6:G13"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="14.125" customWidth="1"/>
     <col min="4" max="5" width="26.625" customWidth="1"/>
-    <col min="6" max="6" width="41.625" customWidth="1"/>
+    <col min="6" max="6" width="60.75" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="26.625" customWidth="1"/>
+    <col min="9" max="9" width="9" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:7" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="3:9" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I1" s="9"/>
+    </row>
+    <row r="2" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C3" s="6" t="s">
         <v>2</v>
       </c>
@@ -2532,7 +2561,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C4" s="6" t="s">
         <v>3</v>
       </c>
@@ -2546,10 +2575,10 @@
         <v>12</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C5" s="2" t="s">
         <v>0</v>
       </c>
@@ -2566,136 +2595,663 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C6" s="7">
-        <v>69011001</v>
+        <v>69051001</v>
       </c>
       <c r="D6" s="4">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="E6" s="4">
-        <v>1</v>
+        <v>1000000</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="7" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I6" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C7" s="7">
-        <v>69011002</v>
+        <v>69051002</v>
       </c>
       <c r="D7" s="4">
-        <v>2</v>
+        <v>1500</v>
       </c>
       <c r="E7" s="4">
-        <v>2</v>
+        <v>1500000</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="3:7" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C8" s="7">
-        <v>69011003</v>
+        <v>69051003</v>
       </c>
       <c r="D8" s="4">
-        <v>3</v>
+        <v>2000</v>
       </c>
       <c r="E8" s="4">
-        <v>3</v>
+        <v>2000000</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="3:7" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C9" s="7">
+        <v>69051011</v>
+      </c>
+      <c r="D9" s="4">
+        <v>3000</v>
+      </c>
+      <c r="E9" s="4">
+        <v>3000000</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C10" s="7">
+        <v>69051012</v>
+      </c>
+      <c r="D10" s="4">
+        <v>3000</v>
+      </c>
+      <c r="E10" s="4">
+        <v>3000000</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C11" s="7">
+        <v>69051013</v>
+      </c>
+      <c r="D11" s="4">
+        <v>4000</v>
+      </c>
+      <c r="E11" s="4">
+        <v>4000000</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C12" s="7">
         <v>69011004</v>
       </c>
-      <c r="D9" s="4">
-        <v>4</v>
-      </c>
-      <c r="E9" s="4">
-        <v>4</v>
-      </c>
-      <c r="F9" s="8" t="s">
+      <c r="D12" s="4">
+        <v>4000</v>
+      </c>
+      <c r="E12" s="4">
+        <v>4000000</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="4" t="s">
+    </row>
+    <row r="13" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C13" s="7">
+        <v>69051021</v>
+      </c>
+      <c r="D13" s="4">
+        <v>3000</v>
+      </c>
+      <c r="E13" s="4">
+        <v>3000000</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I13" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C14" s="7">
+        <v>69051022</v>
+      </c>
+      <c r="D14" s="4">
+        <v>3000</v>
+      </c>
+      <c r="E14" s="4">
+        <v>3000000</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C15" s="7">
+        <v>69051023</v>
+      </c>
+      <c r="D15" s="4">
+        <v>4000</v>
+      </c>
+      <c r="E15" s="4">
+        <v>4000000</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C16" s="7">
+        <v>69051024</v>
+      </c>
+      <c r="D16" s="4">
+        <v>4000</v>
+      </c>
+      <c r="E16" s="4">
+        <v>4000000</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C17" s="7">
+        <v>69051031</v>
+      </c>
+      <c r="D17" s="4">
+        <v>3000</v>
+      </c>
+      <c r="E17" s="4">
+        <v>3000000</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I17" s="11" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C10" s="7">
-        <v>69011005</v>
-      </c>
-      <c r="D10" s="4">
-        <v>5</v>
-      </c>
-      <c r="E10" s="4">
-        <v>5</v>
-      </c>
-      <c r="F10" s="8" t="s">
+    <row r="18" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C18" s="7">
+        <v>69051032</v>
+      </c>
+      <c r="D18" s="4">
+        <v>3000</v>
+      </c>
+      <c r="E18" s="4">
+        <v>3000000</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G18" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G10" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C11" s="7">
-        <v>69011006</v>
-      </c>
-      <c r="D11" s="4">
-        <v>6</v>
-      </c>
-      <c r="E11" s="4">
-        <v>6</v>
-      </c>
-      <c r="F11" s="8" t="s">
+    </row>
+    <row r="19" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C19" s="7">
+        <v>69051033</v>
+      </c>
+      <c r="D19" s="4">
+        <v>4000</v>
+      </c>
+      <c r="E19" s="4">
+        <v>4000000</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G19" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G11" s="4" t="s">
+    </row>
+    <row r="20" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C20" s="7">
+        <v>69051034</v>
+      </c>
+      <c r="D20" s="4">
+        <v>4000</v>
+      </c>
+      <c r="E20" s="4">
+        <v>4000000</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C21" s="7">
+        <v>60031111</v>
+      </c>
+      <c r="D21" s="4">
+        <v>5000</v>
+      </c>
+      <c r="E21" s="4">
+        <v>5000000</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I21" s="12" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C12" s="7">
-        <v>69011101</v>
-      </c>
-      <c r="D12" s="4">
-        <v>7</v>
-      </c>
-      <c r="E12" s="4">
-        <v>7</v>
-      </c>
-      <c r="F12" s="8" t="s">
+    <row r="22" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C22" s="7">
+        <v>60031121</v>
+      </c>
+      <c r="D22" s="4">
+        <v>5000</v>
+      </c>
+      <c r="E22" s="4">
+        <v>5000000</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C23" s="7">
+        <v>60031131</v>
+      </c>
+      <c r="D23" s="4">
+        <v>5000</v>
+      </c>
+      <c r="E23" s="4">
+        <v>5000000</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C24" s="7">
+        <v>69052001</v>
+      </c>
+      <c r="D24" s="4">
+        <v>1000</v>
+      </c>
+      <c r="E24" s="4">
+        <v>1000000</v>
+      </c>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I24" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C25" s="7">
+        <v>69052002</v>
+      </c>
+      <c r="D25" s="4">
+        <v>1500</v>
+      </c>
+      <c r="E25" s="4">
+        <v>1500000</v>
+      </c>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C26" s="7">
+        <v>69052003</v>
+      </c>
+      <c r="D26" s="4">
+        <v>2000</v>
+      </c>
+      <c r="E26" s="4">
+        <v>2000000</v>
+      </c>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C27" s="7">
+        <v>69052011</v>
+      </c>
+      <c r="D27" s="4">
+        <v>3000</v>
+      </c>
+      <c r="E27" s="4">
+        <v>3000000</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G27" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G12" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C13" s="7">
-        <v>70403003</v>
-      </c>
-      <c r="D13" s="4">
-        <v>8</v>
-      </c>
-      <c r="E13" s="4">
-        <v>8</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G13" s="4" t="s">
+      <c r="I27" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C28" s="7">
+        <v>69052012</v>
+      </c>
+      <c r="D28" s="4">
+        <v>3000</v>
+      </c>
+      <c r="E28" s="4">
+        <v>3000000</v>
+      </c>
+      <c r="F28" s="8" t="s">
         <v>23</v>
       </c>
-    </row>
+      <c r="G28" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C29" s="7">
+        <v>69052013</v>
+      </c>
+      <c r="D29" s="4">
+        <v>4000</v>
+      </c>
+      <c r="E29" s="4">
+        <v>4000000</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C30" s="7">
+        <v>69052014</v>
+      </c>
+      <c r="D30" s="4">
+        <v>4000</v>
+      </c>
+      <c r="E30" s="4">
+        <v>4000000</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C31" s="7">
+        <v>69052021</v>
+      </c>
+      <c r="D31" s="4">
+        <v>3000</v>
+      </c>
+      <c r="E31" s="4">
+        <v>3000000</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I31" s="11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C32" s="7">
+        <v>69052022</v>
+      </c>
+      <c r="D32" s="4">
+        <v>3000</v>
+      </c>
+      <c r="E32" s="4">
+        <v>3000000</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C33" s="7">
+        <v>69052023</v>
+      </c>
+      <c r="D33" s="4">
+        <v>4000</v>
+      </c>
+      <c r="E33" s="4">
+        <v>4000000</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C34" s="7">
+        <v>69052024</v>
+      </c>
+      <c r="D34" s="4">
+        <v>4000</v>
+      </c>
+      <c r="E34" s="4">
+        <v>4000000</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C35" s="7">
+        <v>69052031</v>
+      </c>
+      <c r="D35" s="4">
+        <v>3000</v>
+      </c>
+      <c r="E35" s="4">
+        <v>3000000</v>
+      </c>
+      <c r="F35" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I35" s="11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C36" s="7">
+        <v>69052032</v>
+      </c>
+      <c r="D36" s="4">
+        <v>3000</v>
+      </c>
+      <c r="E36" s="4">
+        <v>3000000</v>
+      </c>
+      <c r="F36" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C37" s="7">
+        <v>69052033</v>
+      </c>
+      <c r="D37" s="4">
+        <v>4000</v>
+      </c>
+      <c r="E37" s="4">
+        <v>4000000</v>
+      </c>
+      <c r="F37" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C38" s="7">
+        <v>69052034</v>
+      </c>
+      <c r="D38" s="4">
+        <v>4000</v>
+      </c>
+      <c r="E38" s="4">
+        <v>4000000</v>
+      </c>
+      <c r="F38" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C39" s="7">
+        <v>60031141</v>
+      </c>
+      <c r="D39" s="4">
+        <v>5000</v>
+      </c>
+      <c r="E39" s="4">
+        <v>5000000</v>
+      </c>
+      <c r="F39" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I39" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="40" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C40" s="7">
+        <v>60031151</v>
+      </c>
+      <c r="D40" s="4">
+        <v>5000</v>
+      </c>
+      <c r="E40" s="4">
+        <v>5000000</v>
+      </c>
+      <c r="F40" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="41" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C41" s="7">
+        <v>60031161</v>
+      </c>
+      <c r="D41" s="4">
+        <v>5000</v>
+      </c>
+      <c r="E41" s="4">
+        <v>5000000</v>
+      </c>
+      <c r="F41" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="42" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="43" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="44" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="45" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="46" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="47" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="48" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="50" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="51" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="52" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="53" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="54" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="55" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="56" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="57" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="58" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="59" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="60" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="61" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="62" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="63" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="64" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="65" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="66" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="67" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="68" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="25" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/OccupationJueXingConfig.xlsx
+++ b/Excel/OccupationJueXingConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A4CF6D0-E608-4436-A5CE-A75356FB763A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAFD2D91-15C1-4915-9E44-F044676C0E3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -81,18 +81,6 @@
     <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
-    <t>10010083;20</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>10010083;30</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>10010083;50</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
     <t>战士通用</t>
     <phoneticPr fontId="25" type="noConversion"/>
   </si>
@@ -143,6 +131,15 @@
   <si>
     <t>法师3通用</t>
     <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000143;20</t>
+  </si>
+  <si>
+    <t>10000143;30</t>
+  </si>
+  <si>
+    <t>10000143;50</t>
   </si>
 </sst>
 </file>
@@ -2527,8 +2524,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:I68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2607,10 +2604,10 @@
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" s="11" t="s">
         <v>15</v>
-      </c>
-      <c r="I6" s="11" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="7" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2625,7 +2622,7 @@
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2640,7 +2637,7 @@
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2657,10 +2654,10 @@
         <v>14</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2677,7 +2674,7 @@
         <v>14</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2694,12 +2691,12 @@
         <v>14</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C12" s="7">
-        <v>69011004</v>
+        <v>69051014</v>
       </c>
       <c r="D12" s="4">
         <v>4000</v>
@@ -2711,7 +2708,7 @@
         <v>14</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2728,10 +2725,10 @@
         <v>14</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I13" s="11" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2748,7 +2745,7 @@
         <v>14</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2765,7 +2762,7 @@
         <v>14</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2782,7 +2779,7 @@
         <v>14</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2799,10 +2796,10 @@
         <v>14</v>
       </c>
       <c r="G17" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I17" s="11" t="s">
         <v>16</v>
-      </c>
-      <c r="I17" s="11" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="18" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2819,7 +2816,7 @@
         <v>14</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2836,7 +2833,7 @@
         <v>14</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2853,7 +2850,7 @@
         <v>14</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2867,13 +2864,13 @@
         <v>5000000</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="I21" s="12" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2887,10 +2884,10 @@
         <v>5000000</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2904,10 +2901,10 @@
         <v>5000000</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2922,10 +2919,10 @@
       </c>
       <c r="F24" s="4"/>
       <c r="G24" s="4" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="I24" s="11" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2940,7 +2937,7 @@
       </c>
       <c r="F25" s="4"/>
       <c r="G25" s="4" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2955,7 +2952,7 @@
       </c>
       <c r="F26" s="4"/>
       <c r="G26" s="4" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2969,13 +2966,13 @@
         <v>3000000</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I27" s="11" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2989,10 +2986,10 @@
         <v>3000000</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -3006,10 +3003,10 @@
         <v>4000000</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -3023,10 +3020,10 @@
         <v>4000000</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -3040,13 +3037,13 @@
         <v>3000000</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I31" s="11" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -3060,10 +3057,10 @@
         <v>3000000</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="33" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -3077,10 +3074,10 @@
         <v>4000000</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="34" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -3094,10 +3091,10 @@
         <v>4000000</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="35" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -3111,13 +3108,13 @@
         <v>3000000</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I35" s="11" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="36" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -3131,10 +3128,10 @@
         <v>3000000</v>
       </c>
       <c r="F36" s="8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="37" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -3148,10 +3145,10 @@
         <v>4000000</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="38" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -3165,10 +3162,10 @@
         <v>4000000</v>
       </c>
       <c r="F38" s="8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="39" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -3182,13 +3179,13 @@
         <v>5000000</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="I39" s="12" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="40" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -3202,10 +3199,10 @@
         <v>5000000</v>
       </c>
       <c r="F40" s="8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
     </row>
     <row r="41" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -3219,10 +3216,10 @@
         <v>5000000</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
     </row>
     <row r="42" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/Excel/OccupationJueXingConfig.xlsx
+++ b/Excel/OccupationJueXingConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAFD2D91-15C1-4915-9E44-F044676C0E3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CA46765-573E-4285-A703-E8A8A72A86DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="33">
   <si>
     <t>int</t>
     <phoneticPr fontId="23" type="noConversion"/>
@@ -117,10 +117,6 @@
     <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
-    <t>69051004,69051011,69051012,69051013</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
     <t>法师1通用</t>
     <phoneticPr fontId="25" type="noConversion"/>
   </si>
@@ -140,6 +136,16 @@
   </si>
   <si>
     <t>10000143;50</t>
+  </si>
+  <si>
+    <t>69051014,69051011,69051012,69051013</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>69051024,69051021,69051022,69051023</t>
+  </si>
+  <si>
+    <t>69051034,69051031,69051032,69051033</t>
   </si>
 </sst>
 </file>
@@ -2524,8 +2530,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:I68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2604,7 +2610,7 @@
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I6" s="11" t="s">
         <v>15</v>
@@ -2622,7 +2628,7 @@
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2637,7 +2643,7 @@
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2654,7 +2660,7 @@
         <v>14</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I9" s="11" t="s">
         <v>17</v>
@@ -2674,7 +2680,7 @@
         <v>14</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2691,7 +2697,7 @@
         <v>14</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2708,7 +2714,7 @@
         <v>14</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2725,7 +2731,7 @@
         <v>14</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I13" s="11" t="s">
         <v>17</v>
@@ -2745,7 +2751,7 @@
         <v>14</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2762,7 +2768,7 @@
         <v>14</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2779,7 +2785,7 @@
         <v>14</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2796,7 +2802,7 @@
         <v>14</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I17" s="11" t="s">
         <v>16</v>
@@ -2816,7 +2822,7 @@
         <v>14</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2833,7 +2839,7 @@
         <v>14</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2850,7 +2856,7 @@
         <v>14</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2864,10 +2870,10 @@
         <v>5000000</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I21" s="12" t="s">
         <v>18</v>
@@ -2884,10 +2890,10 @@
         <v>5000000</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2901,10 +2907,10 @@
         <v>5000000</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2919,7 +2925,7 @@
       </c>
       <c r="F24" s="4"/>
       <c r="G24" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I24" s="11" t="s">
         <v>19</v>
@@ -2937,7 +2943,7 @@
       </c>
       <c r="F25" s="4"/>
       <c r="G25" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2952,7 +2958,7 @@
       </c>
       <c r="F26" s="4"/>
       <c r="G26" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2969,10 +2975,10 @@
         <v>20</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I27" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2989,7 +2995,7 @@
         <v>20</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -3006,7 +3012,7 @@
         <v>20</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -3023,7 +3029,7 @@
         <v>20</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -3040,10 +3046,10 @@
         <v>20</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I31" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -3060,7 +3066,7 @@
         <v>20</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="33" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -3077,7 +3083,7 @@
         <v>20</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="34" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -3094,7 +3100,7 @@
         <v>20</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="35" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -3111,10 +3117,10 @@
         <v>20</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I35" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="36" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -3131,7 +3137,7 @@
         <v>20</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="37" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -3148,7 +3154,7 @@
         <v>20</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="38" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -3165,7 +3171,7 @@
         <v>20</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="39" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -3182,7 +3188,7 @@
         <v>21</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I39" s="12" t="s">
         <v>18</v>
@@ -3202,7 +3208,7 @@
         <v>22</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="41" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -3219,7 +3225,7 @@
         <v>23</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="42" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/Excel/OccupationJueXingConfig.xlsx
+++ b/Excel/OccupationJueXingConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CA46765-573E-4285-A703-E8A8A72A86DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91917739-A7D2-49BB-A0D2-DD5E007C5166}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2531,7 +2531,7 @@
   <dimension ref="C1:I68"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2691,7 +2691,7 @@
         <v>4000</v>
       </c>
       <c r="E11" s="4">
-        <v>4000000</v>
+        <v>3000000</v>
       </c>
       <c r="F11" s="8" t="s">
         <v>14</v>
@@ -2708,7 +2708,7 @@
         <v>4000</v>
       </c>
       <c r="E12" s="4">
-        <v>4000000</v>
+        <v>3000000</v>
       </c>
       <c r="F12" s="8" t="s">
         <v>14</v>
@@ -2762,7 +2762,7 @@
         <v>4000</v>
       </c>
       <c r="E15" s="4">
-        <v>4000000</v>
+        <v>3000000</v>
       </c>
       <c r="F15" s="8" t="s">
         <v>14</v>
@@ -2779,7 +2779,7 @@
         <v>4000</v>
       </c>
       <c r="E16" s="4">
-        <v>4000000</v>
+        <v>3000000</v>
       </c>
       <c r="F16" s="8" t="s">
         <v>14</v>
@@ -2833,7 +2833,7 @@
         <v>4000</v>
       </c>
       <c r="E19" s="4">
-        <v>4000000</v>
+        <v>3000000</v>
       </c>
       <c r="F19" s="8" t="s">
         <v>14</v>
@@ -2850,7 +2850,7 @@
         <v>4000</v>
       </c>
       <c r="E20" s="4">
-        <v>4000000</v>
+        <v>3000000</v>
       </c>
       <c r="F20" s="8" t="s">
         <v>14</v>
@@ -3006,7 +3006,7 @@
         <v>4000</v>
       </c>
       <c r="E29" s="4">
-        <v>4000000</v>
+        <v>3000000</v>
       </c>
       <c r="F29" s="8" t="s">
         <v>20</v>
@@ -3023,7 +3023,7 @@
         <v>4000</v>
       </c>
       <c r="E30" s="4">
-        <v>4000000</v>
+        <v>3000000</v>
       </c>
       <c r="F30" s="8" t="s">
         <v>20</v>
@@ -3077,7 +3077,7 @@
         <v>4000</v>
       </c>
       <c r="E33" s="4">
-        <v>4000000</v>
+        <v>3000000</v>
       </c>
       <c r="F33" s="8" t="s">
         <v>20</v>
@@ -3094,7 +3094,7 @@
         <v>4000</v>
       </c>
       <c r="E34" s="4">
-        <v>4000000</v>
+        <v>3000000</v>
       </c>
       <c r="F34" s="8" t="s">
         <v>20</v>
@@ -3148,7 +3148,7 @@
         <v>4000</v>
       </c>
       <c r="E37" s="4">
-        <v>4000000</v>
+        <v>3000000</v>
       </c>
       <c r="F37" s="8" t="s">
         <v>20</v>
@@ -3165,7 +3165,7 @@
         <v>4000</v>
       </c>
       <c r="E38" s="4">
-        <v>4000000</v>
+        <v>3000000</v>
       </c>
       <c r="F38" s="8" t="s">
         <v>20</v>

--- a/Excel/OccupationJueXingConfig.xlsx
+++ b/Excel/OccupationJueXingConfig.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91917739-A7D2-49BB-A0D2-DD5E007C5166}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAD6D961-5100-41E4-BC67-CD3FA9E4152D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="38">
   <si>
     <t>int</t>
     <phoneticPr fontId="23" type="noConversion"/>
@@ -146,6 +146,22 @@
   </si>
   <si>
     <t>69051034,69051031,69051032,69051033</t>
+  </si>
+  <si>
+    <t>猎人通用</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>69053001,69053002,69053003</t>
+  </si>
+  <si>
+    <t>69053011,69053012,69053013,69053014</t>
+  </si>
+  <si>
+    <t>69053021,69053022,69053023,69053024</t>
+  </si>
+  <si>
+    <t>69053031,69053032,69053033,69053034</t>
   </si>
 </sst>
 </file>
@@ -2530,8 +2546,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:I68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3228,29 +3244,326 @@
         <v>29</v>
       </c>
     </row>
-    <row r="42" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="43" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="44" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="45" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="46" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="47" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="48" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="50" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="51" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="52" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="53" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="54" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="55" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="56" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="57" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="58" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="59" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="60" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="61" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="62" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="63" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="64" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="42" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C42" s="7">
+        <v>69053001</v>
+      </c>
+      <c r="D42" s="4">
+        <v>1000</v>
+      </c>
+      <c r="E42" s="4">
+        <v>1000000</v>
+      </c>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I42" s="11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="43" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C43" s="7">
+        <v>69053002</v>
+      </c>
+      <c r="D43" s="4">
+        <v>1500</v>
+      </c>
+      <c r="E43" s="4">
+        <v>1500000</v>
+      </c>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="44" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C44" s="7">
+        <v>69053003</v>
+      </c>
+      <c r="D44" s="4">
+        <v>2000</v>
+      </c>
+      <c r="E44" s="4">
+        <v>2000000</v>
+      </c>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="45" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C45" s="7">
+        <v>69053011</v>
+      </c>
+      <c r="D45" s="4">
+        <v>3000</v>
+      </c>
+      <c r="E45" s="4">
+        <v>3000000</v>
+      </c>
+      <c r="F45" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I45" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="46" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C46" s="7">
+        <v>69053012</v>
+      </c>
+      <c r="D46" s="4">
+        <v>3000</v>
+      </c>
+      <c r="E46" s="4">
+        <v>3000000</v>
+      </c>
+      <c r="F46" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="47" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C47" s="7">
+        <v>69053013</v>
+      </c>
+      <c r="D47" s="4">
+        <v>4000</v>
+      </c>
+      <c r="E47" s="4">
+        <v>3000000</v>
+      </c>
+      <c r="F47" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="48" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C48" s="7">
+        <v>69053014</v>
+      </c>
+      <c r="D48" s="4">
+        <v>4000</v>
+      </c>
+      <c r="E48" s="4">
+        <v>3000000</v>
+      </c>
+      <c r="F48" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="49" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C49" s="7">
+        <v>69053021</v>
+      </c>
+      <c r="D49" s="4">
+        <v>3000</v>
+      </c>
+      <c r="E49" s="4">
+        <v>3000000</v>
+      </c>
+      <c r="F49" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I49" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="50" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C50" s="7">
+        <v>69053022</v>
+      </c>
+      <c r="D50" s="4">
+        <v>3000</v>
+      </c>
+      <c r="E50" s="4">
+        <v>3000000</v>
+      </c>
+      <c r="F50" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="51" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C51" s="7">
+        <v>69053023</v>
+      </c>
+      <c r="D51" s="4">
+        <v>4000</v>
+      </c>
+      <c r="E51" s="4">
+        <v>3000000</v>
+      </c>
+      <c r="F51" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="52" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C52" s="7">
+        <v>69053024</v>
+      </c>
+      <c r="D52" s="4">
+        <v>4000</v>
+      </c>
+      <c r="E52" s="4">
+        <v>3000000</v>
+      </c>
+      <c r="F52" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G52" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="53" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C53" s="7">
+        <v>69053031</v>
+      </c>
+      <c r="D53" s="4">
+        <v>3000</v>
+      </c>
+      <c r="E53" s="4">
+        <v>3000000</v>
+      </c>
+      <c r="F53" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G53" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I53" s="11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="54" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C54" s="7">
+        <v>69053032</v>
+      </c>
+      <c r="D54" s="4">
+        <v>3000</v>
+      </c>
+      <c r="E54" s="4">
+        <v>3000000</v>
+      </c>
+      <c r="F54" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G54" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="55" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C55" s="7">
+        <v>69053033</v>
+      </c>
+      <c r="D55" s="4">
+        <v>4000</v>
+      </c>
+      <c r="E55" s="4">
+        <v>3000000</v>
+      </c>
+      <c r="F55" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G55" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="56" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C56" s="7">
+        <v>69053034</v>
+      </c>
+      <c r="D56" s="4">
+        <v>4000</v>
+      </c>
+      <c r="E56" s="4">
+        <v>3000000</v>
+      </c>
+      <c r="F56" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G56" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="57" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C57" s="7">
+        <v>60031171</v>
+      </c>
+      <c r="D57" s="4">
+        <v>5000</v>
+      </c>
+      <c r="E57" s="4">
+        <v>5000000</v>
+      </c>
+      <c r="F57" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="G57" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I57" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="58" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C58" s="7">
+        <v>60031181</v>
+      </c>
+      <c r="D58" s="4">
+        <v>5000</v>
+      </c>
+      <c r="E58" s="4">
+        <v>5000000</v>
+      </c>
+      <c r="F58" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="G58" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="59" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C59" s="7">
+        <v>60031191</v>
+      </c>
+      <c r="D59" s="4">
+        <v>5000</v>
+      </c>
+      <c r="E59" s="4">
+        <v>5000000</v>
+      </c>
+      <c r="F59" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G59" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="60" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="61" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="62" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="63" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="64" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="65" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="66" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="67" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/Excel/OccupationJueXingConfig.xlsx
+++ b/Excel/OccupationJueXingConfig.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAD6D961-5100-41E4-BC67-CD3FA9E4152D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{566E3840-9C7B-4B9E-9F28-AB1422FC476F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="42">
   <si>
     <t>int</t>
     <phoneticPr fontId="23" type="noConversion"/>
@@ -162,6 +162,18 @@
   </si>
   <si>
     <t>69053031,69053032,69053033,69053034</t>
+  </si>
+  <si>
+    <t>69054001,69054002,69054003</t>
+  </si>
+  <si>
+    <t>69054011,69054012,69054013,69054014</t>
+  </si>
+  <si>
+    <t>69054021,69054022,69054023,69054024</t>
+  </si>
+  <si>
+    <t>69054031,69054032,69054033,69054034</t>
   </si>
 </sst>
 </file>
@@ -2544,10 +2556,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C1:I68"/>
+  <dimension ref="C1:I77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="C53" sqref="C53"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="F63" sqref="F63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3559,15 +3571,321 @@
         <v>29</v>
       </c>
     </row>
-    <row r="60" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="61" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="62" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="63" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="64" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="65" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="66" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="67" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="68" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="60" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C60" s="7">
+        <v>69054001</v>
+      </c>
+      <c r="D60" s="4">
+        <v>1000</v>
+      </c>
+      <c r="E60" s="4">
+        <v>1000000</v>
+      </c>
+      <c r="F60" s="4"/>
+      <c r="G60" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I60" s="11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="61" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C61" s="7">
+        <v>69054002</v>
+      </c>
+      <c r="D61" s="4">
+        <v>1500</v>
+      </c>
+      <c r="E61" s="4">
+        <v>1500000</v>
+      </c>
+      <c r="F61" s="4"/>
+      <c r="G61" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="62" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C62" s="7">
+        <v>69054003</v>
+      </c>
+      <c r="D62" s="4">
+        <v>2000</v>
+      </c>
+      <c r="E62" s="4">
+        <v>2000000</v>
+      </c>
+      <c r="F62" s="4"/>
+      <c r="G62" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="63" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C63" s="7">
+        <v>69054011</v>
+      </c>
+      <c r="D63" s="4">
+        <v>3000</v>
+      </c>
+      <c r="E63" s="4">
+        <v>3000000</v>
+      </c>
+      <c r="F63" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G63" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I63" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="64" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C64" s="7">
+        <v>69054012</v>
+      </c>
+      <c r="D64" s="4">
+        <v>3000</v>
+      </c>
+      <c r="E64" s="4">
+        <v>3000000</v>
+      </c>
+      <c r="F64" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G64" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="65" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C65" s="7">
+        <v>69054013</v>
+      </c>
+      <c r="D65" s="4">
+        <v>4000</v>
+      </c>
+      <c r="E65" s="4">
+        <v>3000000</v>
+      </c>
+      <c r="F65" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G65" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="66" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C66" s="7">
+        <v>69054014</v>
+      </c>
+      <c r="D66" s="4">
+        <v>4000</v>
+      </c>
+      <c r="E66" s="4">
+        <v>3000000</v>
+      </c>
+      <c r="F66" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G66" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="67" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C67" s="7">
+        <v>69054021</v>
+      </c>
+      <c r="D67" s="4">
+        <v>3000</v>
+      </c>
+      <c r="E67" s="4">
+        <v>3000000</v>
+      </c>
+      <c r="F67" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G67" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I67" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="68" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C68" s="7">
+        <v>69054022</v>
+      </c>
+      <c r="D68" s="4">
+        <v>3000</v>
+      </c>
+      <c r="E68" s="4">
+        <v>3000000</v>
+      </c>
+      <c r="F68" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G68" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="69" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C69" s="7">
+        <v>69054023</v>
+      </c>
+      <c r="D69" s="4">
+        <v>4000</v>
+      </c>
+      <c r="E69" s="4">
+        <v>3000000</v>
+      </c>
+      <c r="F69" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G69" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="70" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C70" s="7">
+        <v>69054024</v>
+      </c>
+      <c r="D70" s="4">
+        <v>4000</v>
+      </c>
+      <c r="E70" s="4">
+        <v>3000000</v>
+      </c>
+      <c r="F70" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G70" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="71" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C71" s="7">
+        <v>69054031</v>
+      </c>
+      <c r="D71" s="4">
+        <v>3000</v>
+      </c>
+      <c r="E71" s="4">
+        <v>3000000</v>
+      </c>
+      <c r="F71" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G71" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I71" s="11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="72" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C72" s="7">
+        <v>69054032</v>
+      </c>
+      <c r="D72" s="4">
+        <v>3000</v>
+      </c>
+      <c r="E72" s="4">
+        <v>3000000</v>
+      </c>
+      <c r="F72" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G72" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="73" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C73" s="7">
+        <v>69054033</v>
+      </c>
+      <c r="D73" s="4">
+        <v>4000</v>
+      </c>
+      <c r="E73" s="4">
+        <v>3000000</v>
+      </c>
+      <c r="F73" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G73" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="74" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C74" s="7">
+        <v>69054034</v>
+      </c>
+      <c r="D74" s="4">
+        <v>4000</v>
+      </c>
+      <c r="E74" s="4">
+        <v>3000000</v>
+      </c>
+      <c r="F74" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G74" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="75" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C75" s="7">
+        <v>60031201</v>
+      </c>
+      <c r="D75" s="4">
+        <v>5000</v>
+      </c>
+      <c r="E75" s="4">
+        <v>5000000</v>
+      </c>
+      <c r="F75" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="G75" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I75" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="76" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C76" s="7">
+        <v>60031211</v>
+      </c>
+      <c r="D76" s="4">
+        <v>5000</v>
+      </c>
+      <c r="E76" s="4">
+        <v>5000000</v>
+      </c>
+      <c r="F76" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="G76" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="77" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C77" s="7">
+        <v>60031221</v>
+      </c>
+      <c r="D77" s="4">
+        <v>5000</v>
+      </c>
+      <c r="E77" s="4">
+        <v>5000000</v>
+      </c>
+      <c r="F77" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G77" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="25" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
